--- a/3_FENIX/FENIX.xlsx
+++ b/3_FENIX/FENIX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d18bcd00a3430d46/OFICINA/SUELDOS/2025/02/3_FENIX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\marzo\3_FENIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="544" documentId="13_ncr:1_{AA2F3C6B-5A81-42E8-8FFA-53A718341C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DD87842-5861-43F5-BF76-941F1337D772}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22BA841-CEDA-4534-B18C-25A4F39DF77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27750" yWindow="2025" windowWidth="21600" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>SMITH</t>
   </si>
   <si>
-    <t>FEBRERO 2025</t>
+    <t>MARZO 2025</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,32 +594,32 @@
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>1271127.8999999999</v>
+        <v>1380951</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f>+B7+C7</f>
-        <v>1271127.8999999999</v>
+        <v>1380951</v>
       </c>
       <c r="E7" s="6">
-        <v>291095.81</v>
+        <v>232863.48</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
       <c r="G7" s="6">
         <f>+E7+F7</f>
-        <v>291095.81</v>
+        <v>232863.48</v>
       </c>
       <c r="H7" s="6">
         <f>+D7+G7</f>
-        <v>1562223.71</v>
+        <v>1613814.48</v>
       </c>
       <c r="I7" s="6">
         <f>+H7</f>
-        <v>1562223.71</v>
+        <v>1613814.48</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -628,32 +628,32 @@
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>1189821.8</v>
+        <v>1292620.2</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ref="D8:D9" si="0">+B8+C8</f>
-        <v>1189821.8</v>
+        <v>1292620.2</v>
       </c>
       <c r="E8" s="6">
-        <v>272476.21000000002</v>
+        <v>217968.66</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" ref="G8:G9" si="1">+E8+F8</f>
-        <v>272476.21000000002</v>
+        <v>217968.66</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H9" si="2">+D8+G8</f>
-        <v>1462298.01</v>
+        <v>1510588.8599999999</v>
       </c>
       <c r="I8" s="6">
         <f>+H8</f>
-        <v>1462298.01</v>
+        <v>1510588.8599999999</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -662,32 +662,32 @@
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>517724.7</v>
+        <v>562455</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>517724.7</v>
+        <v>562455</v>
       </c>
       <c r="E9" s="6">
-        <v>118562.03</v>
+        <v>94844.27</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>118562.03</v>
+        <v>94844.27</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>636286.73</v>
+        <v>657299.27</v>
       </c>
       <c r="I9" s="6">
         <f>+H9*2</f>
-        <v>1272573.46</v>
+        <v>1314598.54</v>
       </c>
       <c r="J9" s="6"/>
     </row>
@@ -695,7 +695,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="7">
         <f t="shared" ref="B10:I10" si="3">SUM(B7:B9)</f>
-        <v>2978674.4000000004</v>
+        <v>3236026.2</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:H10" si="4">SUM(C7:C9)</f>
@@ -703,11 +703,11 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" si="4"/>
-        <v>2978674.4000000004</v>
+        <v>3236026.2</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="4"/>
-        <v>682134.05</v>
+        <v>545676.41</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="4"/>
@@ -715,15 +715,15 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="4"/>
-        <v>682134.05</v>
+        <v>545676.41</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="4"/>
-        <v>3660808.4499999997</v>
+        <v>3781702.61</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="3"/>
-        <v>4297095.18</v>
+        <v>4439001.88</v>
       </c>
       <c r="J10" s="7"/>
     </row>
@@ -783,7 +783,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12">
-        <v>1242273.72</v>
+        <v>1527379.83</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -867,17 +867,17 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="12">
-        <v>63977.24</v>
+        <v>39438</v>
       </c>
       <c r="D21" s="12">
-        <v>59446.52</v>
+        <v>38710.800000000003</v>
       </c>
       <c r="E21" s="12">
         <f>+C21-D21</f>
-        <v>4530.7200000000012</v>
+        <v>727.19999999999709</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -888,17 +888,17 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C22" s="12">
-        <v>45507.31</v>
+        <v>45317.67</v>
       </c>
       <c r="D22" s="12">
-        <v>50536.71</v>
+        <v>42993.86</v>
       </c>
       <c r="E22" s="12">
         <f t="shared" ref="E22:E23" si="5">+C22-D22</f>
-        <v>-5029.4000000000015</v>
+        <v>2323.8099999999977</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -909,17 +909,17 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C23" s="13">
-        <v>40837.79</v>
+        <v>48414.43</v>
       </c>
       <c r="D23" s="13">
-        <v>43320.52</v>
+        <v>45821.4</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="5"/>
-        <v>-2482.7299999999959</v>
+        <v>2593.0299999999988</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
